--- a/PhoenixCI/Excel_Template/30580.xlsx
+++ b/PhoenixCI/Excel_Template/30580.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Source\Repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41AFE969-49C1-4118-BDC9-02F03CDE32BB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97667AC8-673C-44BA-8C00-04E7570FB176}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="12390" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="表39" sheetId="22" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -409,13 +408,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="188" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -436,10 +435,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -448,7 +447,7 @@
     <xf numFmtId="192" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -469,7 +468,7 @@
     <xf numFmtId="200" fontId="10" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="200" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="200" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="200" fontId="12" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -484,9 +483,13 @@
     <xf numFmtId="200" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="200" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="200" fontId="10" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -926,26 +929,27 @@
       <c r="I5" s="15"/>
     </row>
     <row r="6" spans="1:9" s="8" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="35" t="s">
+      <c r="C6" s="38"/>
+      <c r="D6" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="33" t="s">
+      <c r="E6" s="38"/>
+      <c r="F6" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="35" t="s">
         <v>4</v>
       </c>
+      <c r="H6" s="34"/>
     </row>
     <row r="7" spans="1:9" s="8" customFormat="1" ht="14.25">
-      <c r="A7" s="34"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
@@ -958,8 +962,8 @@
       <c r="E7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
     </row>
     <row r="8" spans="1:9" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="16"/>
@@ -1186,8 +1190,8 @@
       <c r="C32" s="31"/>
       <c r="D32" s="31"/>
       <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
     </row>
     <row r="33" spans="1:8" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="23"/>
@@ -1227,12 +1231,12 @@
     </row>
     <row r="37" spans="1:8" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A37" s="24"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="2"/>

--- a/PhoenixCI/Excel_Template/30580.xlsx
+++ b/PhoenixCI/Excel_Template/30580.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Source\Repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97667AC8-673C-44BA-8C00-04E7570FB176}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{41AFE969-49C1-4118-BDC9-02F03CDE32BB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="12390" windowHeight="9000"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="表39" sheetId="22" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -408,13 +409,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="188" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -435,10 +436,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -447,7 +448,7 @@
     <xf numFmtId="192" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -468,7 +469,7 @@
     <xf numFmtId="200" fontId="10" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="200" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="200" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="200" fontId="12" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -483,13 +484,9 @@
     <xf numFmtId="200" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="200" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="200" fontId="10" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -929,27 +926,26 @@
       <c r="I5" s="15"/>
     </row>
     <row r="6" spans="1:9" s="8" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="37" t="s">
+      <c r="C6" s="36"/>
+      <c r="D6" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="38"/>
-      <c r="F6" s="35" t="s">
+      <c r="E6" s="36"/>
+      <c r="F6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="34"/>
     </row>
     <row r="7" spans="1:9" s="8" customFormat="1" ht="14.25">
-      <c r="A7" s="36"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
@@ -962,8 +958,8 @@
       <c r="E7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
     </row>
     <row r="8" spans="1:9" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="16"/>
@@ -1190,8 +1186,8 @@
       <c r="C32" s="31"/>
       <c r="D32" s="31"/>
       <c r="E32" s="31"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
     </row>
     <row r="33" spans="1:8" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="23"/>
@@ -1231,12 +1227,12 @@
     </row>
     <row r="37" spans="1:8" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A37" s="24"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="2"/>
